--- a/va_facility_data_2025-02-20/Valdosta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Valdosta%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Valdosta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Valdosta%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R37c91bf048a543b1b4c43137cefb85ef"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re0fd97c70b1841eb8f2b68e92f64c584"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf92be92cd4fa4dba9672db9cafeb9e1e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R21edda34177849aebf831d6f423d0e6b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3f5e1497d0524378b3e400411947f69a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ree5776207dba46868ee3015426922173"/>
   </x:sheets>
 </x:workbook>
 </file>
